--- a/data/trans_dic/P1801-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P1801-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,48 +544,84 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -611,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -627,6 +682,36 @@
       <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>61,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54,54%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>53,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49,23%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>37,52; 55,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>33,2; 53,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0; 1,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>53,42; 71,19</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46,8; 60,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,82</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>46,86; 60,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>43,59; 55,83</t>
         </is>
       </c>
     </row>
@@ -691,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -707,6 +822,36 @@
       <c r="H6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61,15%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56,47%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>54,85%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0; 0,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>45,29; 53,62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>47,96; 57,32</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0; 0,35</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>56,88; 65,13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>52,85; 59,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52,73; 58,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52,21; 57,82</t>
         </is>
       </c>
     </row>
@@ -771,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -787,6 +962,36 @@
       <c r="H8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>56,28%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>54,91%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41,34; 47,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47,98; 59,71</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,21</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>0; 0,2</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53,27; 59,54</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 60,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>47,97; 52,69</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>52,34; 59,15</t>
         </is>
       </c>
     </row>
@@ -851,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -867,6 +1102,36 @@
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>59,77%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>53,67%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47,86%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0; 0,3</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 50,14</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>36,62; 44,86</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>0; 0,28</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,13</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,27</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56,21; 63,6</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45,55; 70,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,14</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>50,55; 55,97</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43,15; 58,98</t>
         </is>
       </c>
     </row>
@@ -931,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -947,6 +1242,36 @@
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>58,26%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>50,27%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>55,75%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>0; 0,21</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>43,56; 49,99</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49,21; 55,96</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>0; 0,19</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>50,06; 56,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>54,39; 61,13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,07</t>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,1</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47,99; 52,62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>53,3; 58,12</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1366,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,6 +1382,36 @@
       <c r="H14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57,12%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>56,67%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>53,39%</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1434,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>44,91; 48,29</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>47,75; 52,86</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>0; 0,06</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,04</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55,38; 58,92</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54,71; 60,87</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0; 0,03</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,02</t>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,03</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50,81; 53,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>51,97; 56,2</t>
         </is>
       </c>
     </row>
@@ -1078,14 +1493,14 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P1801-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>61,76%</t>
+          <t>61,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53,91%</t>
+          <t>55,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>49,23%</t>
+          <t>54,13%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,52; 55,99</t>
+          <t>45,44; 53,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 53,35</t>
+          <t>47,33; 56,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0; 0,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,42; 71,19</t>
+          <t>57,79; 65,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,8; 60,83</t>
+          <t>53,65; 59,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,86; 60,64</t>
+          <t>52,52; 57,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>43,59; 55,83</t>
+          <t>51,54; 56,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,89%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,15%</t>
+          <t>56,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,47%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>55,53%</t>
+          <t>50,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,85%</t>
+          <t>59,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,29; 53,62</t>
+          <t>41,34; 47,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,96; 57,32</t>
+          <t>49,44; 78,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>56,88; 65,13</t>
+          <t>53,27; 59,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,85; 59,92</t>
+          <t>55,42; 61,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>52,73; 58,6</t>
+          <t>47,97; 52,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,21; 57,82</t>
+          <t>53,55; 73,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51,99%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,78%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>50,44%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>54,91%</t>
+          <t>50,38%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,34; 47,54</t>
+          <t>42,72; 50,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 59,71</t>
+          <t>36,37; 45,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0; 0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,27; 59,54</t>
+          <t>56,21; 63,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>54,75; 60,49</t>
+          <t>43,69; 78,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,97; 52,69</t>
+          <t>50,55; 55,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,34; 59,15</t>
+          <t>42,21; 65,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>46,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>52,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,77%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,67%</t>
+          <t>55,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>54,52%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,72; 50,14</t>
+          <t>43,56; 49,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,62; 44,86</t>
+          <t>49,39; 56,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0; 0,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,21; 63,6</t>
+          <t>50,06; 56,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,55; 70,19</t>
+          <t>42,2; 60,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0; 0,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 55,97</t>
+          <t>47,99; 52,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>43,15; 58,98</t>
+          <t>48,18; 57,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>46,89%</t>
+          <t>46,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,76%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,31%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>50,27%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>55,75%</t>
+          <t>55,04%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,56; 49,99</t>
+          <t>44,91; 48,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49,21; 55,96</t>
+          <t>48,74; 63,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0; 0,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,06; 56,66</t>
+          <t>55,38; 58,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 61,13</t>
+          <t>53,23; 64,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0; 0,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,99; 52,62</t>
+          <t>50,81; 53,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>53,3; 58,12</t>
+          <t>51,95; 61,98</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>46,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>49,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>57,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>56,67%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>51,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>53,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>44,91; 48,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>47,75; 52,86</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>55,38; 58,92</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>54,71; 60,87</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>50,81; 53,32</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>51,97; 56,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P1801-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,44; 53,33</t>
+          <t>45,82; 53,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,33; 56,1</t>
+          <t>46,65; 56,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,79; 65,28</t>
+          <t>57,27; 65,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53,65; 59,47</t>
+          <t>53,26; 59,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,52; 57,73</t>
+          <t>52,68; 57,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>51,54; 56,79</t>
+          <t>51,46; 56,84</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>41,34; 47,54</t>
+          <t>41,13; 47,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,44; 78,18</t>
+          <t>49,05; 78,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,27; 59,54</t>
+          <t>52,93; 59,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>55,42; 61,19</t>
+          <t>55,68; 61,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>47,97; 52,69</t>
+          <t>48,25; 52,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,55; 73,8</t>
+          <t>53,58; 72,07</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>42,72; 50,14</t>
+          <t>42,75; 50,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,37; 45,02</t>
+          <t>36,69; 44,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,21; 63,6</t>
+          <t>56,23; 63,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>43,69; 78,3</t>
+          <t>43,96; 80,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>50,55; 55,97</t>
+          <t>50,5; 55,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,21; 65,93</t>
+          <t>42,11; 68,86</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,56; 49,99</t>
+          <t>43,57; 49,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,39; 56,34</t>
+          <t>49,26; 56,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,06; 56,66</t>
+          <t>50,04; 56,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,2; 60,69</t>
+          <t>44,2; 60,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,99; 52,62</t>
+          <t>47,99; 52,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,18; 57,51</t>
+          <t>48,0; 57,39</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,91; 48,29</t>
+          <t>44,88; 48,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,74; 63,18</t>
+          <t>48,68; 65,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>55,38; 58,92</t>
+          <t>55,37; 58,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,23; 64,1</t>
+          <t>53,53; 65,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50,81; 53,32</t>
+          <t>50,74; 53,2</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,95; 61,98</t>
+          <t>51,88; 60,7</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un laboratorio de análisis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1169</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>332437</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>327805</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>412159</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>381614</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>744596</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>709419</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>309184; 359646</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>296427; 355975</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1896</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2056</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>385356; 438074</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>359628; 402231</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1924</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2030</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>709935; 779905</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>674430; 745054</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1461</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>454680</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>722059</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>586986</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>559657</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1041666</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1281716</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2059</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2086</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>420489; 486540</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>584619; 938020</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2106</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>552044; 618704</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>532981; 587143</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2054</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>996563; 1093322</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1151553; 1548836</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>756</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>860</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>352014</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>286919</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>469220</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>537172</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>821234</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>824090</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2029</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2108</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>324733; 382667</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>258191; 316196</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1884</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2114</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>441421; 497438</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>409712; 745701</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2113</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>779968; 861713</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>688708; 1126201</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>982</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>942</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>439620</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>490040</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>556399</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>609811</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>996019</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1099851</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1818</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>408502; 467985</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>455965; 520935</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2012</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>522305; 593571</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>482658; 660087</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1910</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>950927; 1036677</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>968411; 1157771</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1848</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3211</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3397</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5059</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1578751</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1826823</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2024764</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2088253</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3603515</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3915075</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1957</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1523230; 1647430</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1682599; 2247966</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1962615; 2079816</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1957076; 2390887</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3520858; 3691555</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3690330; 4317366</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>